--- a/P4TableManagement/UnitTesting/Test/test2.xlsx
+++ b/P4TableManagement/UnitTesting/Test/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuant\source\repos\P4TableManagement\P4TableManagement\UnitTesting\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4514CC-8950-4F08-9656-54112657EA03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B74A1-B63C-4C9A-A736-9CB2C4FEEEBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12165" yWindow="495" windowWidth="14295" windowHeight="12480" xr2:uid="{54B58E6B-D6A8-4C4B-BE58-D91B858644CA}"/>
   </bookViews>
